--- a/Task List/Task to be done.xlsx
+++ b/Task List/Task to be done.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GREY BOX\GreyBoxCyberCafe\Task List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC991791-3D5B-4B4B-90E1-C0A55C8E8AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF81B19E-BE1A-48C5-833E-A399CF770BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7643AF4-61CB-41F9-BDE1-AB6F346A40E1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A7643AF4-61CB-41F9-BDE1-AB6F346A40E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>Landing Page</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Who Will Have</t>
+  </si>
+  <si>
+    <t>Chinmay</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -713,7 +716,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -721,7 +724,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -729,7 +732,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,7 +740,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
